--- a/src/test/resources/testExcelFile.xlsx
+++ b/src/test/resources/testExcelFile.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13700" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13700" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -46,6 +47,30 @@
   </si>
   <si>
     <t>3cc</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>e3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -511,4 +536,56 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>